--- a/dataset/movie-tweets/shang-chi-label.xlsx
+++ b/dataset/movie-tweets/shang-chi-label.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\vin\Projects\cancelled\dataset\movie-tweets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaqinayasmin/Desktop/cancelled/dataset/movie-tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DE0AB4-A017-4245-8343-8D23A8CD61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3597,7 +3604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3953,19 +3960,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1028" workbookViewId="0">
-      <selection activeCell="B1058" sqref="B1058"/>
+    <sheetView tabSelected="1" topLeftCell="A953" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A1002" sqref="A1002"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="239.7109375" customWidth="1"/>
+    <col min="2" max="2" width="187" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4006,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4017,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4028,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4039,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4050,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4061,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4072,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4094,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4105,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4116,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4127,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4138,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4160,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4171,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4182,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4237,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4248,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4259,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4281,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4292,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4303,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4314,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4336,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4347,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4358,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4369,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4380,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4424,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4435,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4468,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4479,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4490,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4501,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4512,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4534,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4545,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4556,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4567,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4600,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4611,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4622,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4633,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4644,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4655,7 +4662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4677,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4688,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4710,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4721,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4732,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4743,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4754,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4765,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4776,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4787,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4798,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4809,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4820,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4831,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4842,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4864,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4875,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4886,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4897,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4908,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4930,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4952,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4963,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4974,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4985,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4996,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5018,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5040,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5062,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5084,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5095,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5106,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5117,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5139,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5150,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5161,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5172,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5183,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5194,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5205,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5216,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5227,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5249,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5260,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5271,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5282,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5293,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5304,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5326,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5337,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5348,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5359,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5370,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5381,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5403,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5414,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5425,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5447,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5458,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5469,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5480,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5491,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5502,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5513,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5524,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5546,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5557,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5568,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5579,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5590,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5612,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5623,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5634,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5656,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5667,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5678,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5689,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5700,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5711,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5722,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5733,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5744,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5755,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5766,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5777,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5788,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5810,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5821,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5832,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5843,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5865,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5876,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5909,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5920,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5975,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5997,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6008,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6052,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6063,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6074,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6096,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6107,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6118,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6140,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6151,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6162,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6173,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6184,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6195,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6206,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6217,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6239,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6250,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6261,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6272,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6294,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6305,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6316,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6327,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6338,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6349,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6360,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6371,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6382,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6393,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6404,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6415,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6426,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6437,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6448,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6459,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6470,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6481,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6492,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6503,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6514,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6525,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6536,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6569,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6580,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6591,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6602,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6613,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6646,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6657,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6668,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6679,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6690,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6712,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6723,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6734,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6745,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6756,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6767,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6778,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6800,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6811,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6822,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6833,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6844,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6855,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6866,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6877,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6888,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6899,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6910,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6921,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6932,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6943,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6954,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6965,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6976,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6987,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6998,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7020,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7031,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7042,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7053,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7064,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7075,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7086,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7097,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7108,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7130,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7141,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7152,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7163,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7174,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7185,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7196,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7207,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7218,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7229,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7240,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7251,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7262,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7273,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7295,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7306,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7317,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7328,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7339,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7361,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7383,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7394,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7405,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7416,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7427,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7438,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7449,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7460,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7471,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7482,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7493,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7515,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7526,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7537,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7548,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7570,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7581,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7592,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7603,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7614,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7625,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7636,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7647,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7658,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7669,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7680,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -7702,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7713,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -7724,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7735,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7746,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -7757,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -7768,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7779,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -7790,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7801,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -7812,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7823,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -7834,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -7845,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -7856,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -7867,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -7878,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -7889,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -7900,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -7911,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -7922,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -7933,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -7944,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -7955,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -7966,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -7977,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -7988,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -7999,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8010,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8021,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8032,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8043,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8054,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8065,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8076,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -8087,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -8098,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -8109,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -8120,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -8131,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -8142,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -8153,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -8164,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8175,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -8186,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -8197,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -8219,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -8230,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -8241,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -8252,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -8263,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -8274,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -8285,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -8296,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -8307,7 +8314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -8318,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -8329,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -8340,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -8351,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -8362,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -8373,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -8384,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -8395,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -8406,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -8417,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -8428,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -8439,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -8450,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -8461,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -8472,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -8483,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -8494,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -8505,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -8538,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -8549,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -8560,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -8571,7 +8578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -8582,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -8593,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8604,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -8615,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -8626,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -8637,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -8648,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -8659,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -8670,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -8681,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -8692,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -8703,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -8714,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -8725,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -8736,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -8747,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -8758,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -8769,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -8780,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -8791,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -8802,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -8813,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -8835,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -8846,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -8857,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -8868,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -8879,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -8890,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -8901,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -8912,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -8923,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -8934,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -8945,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -8956,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -8967,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -8978,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -8989,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -9000,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -9011,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -9022,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -9033,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -9044,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -9055,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -9066,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -9077,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -9088,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -9099,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -9121,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9132,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -9143,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -9154,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -9165,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -9176,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -9187,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -9198,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -9209,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -9220,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -9231,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -9242,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -9253,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -9275,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -9286,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -9297,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -9308,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -9319,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -9330,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -9341,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -9352,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -9363,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -9374,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -9385,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -9396,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -9407,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -9418,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -9429,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -9440,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -9451,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -9462,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -9473,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -9484,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -9495,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -9506,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -9517,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -9528,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -9539,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -9550,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -9561,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -9572,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -9594,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -9605,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -9616,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -9627,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -9638,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -9649,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -9660,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -9671,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -9682,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -9693,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -9704,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -9715,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -9726,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -9737,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -9748,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -9759,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -9770,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -9781,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -9792,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -9803,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -9814,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -9825,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -9847,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -9858,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -9869,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -9880,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -9891,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -9913,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -9924,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -9935,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -9957,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -9968,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -9979,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -9990,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -10001,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -10012,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -10023,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -10034,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -10045,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -10056,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -10067,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -10078,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -10089,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -10100,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -10111,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -10122,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -10133,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -10144,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -10155,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -10166,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -10177,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -10188,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -10199,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -10221,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -10232,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -10243,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -10254,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -10265,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -10276,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -10287,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -10298,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -10309,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -10320,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -10331,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -10342,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -10353,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -10364,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -10375,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -10386,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -10397,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -10408,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -10419,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -10430,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -10441,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -10452,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -10463,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -10474,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -10485,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -10496,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -10507,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -10518,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -10529,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -10540,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -10551,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -10562,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -10573,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -10584,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -10595,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -10606,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -10617,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -10628,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -10639,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -10650,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -10661,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -10672,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -10683,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -10694,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -10705,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -10716,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -10727,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -10738,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -10749,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -10760,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -10771,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -10782,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -10793,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -10804,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -10815,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -10826,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -10837,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -10848,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -10859,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -10870,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -10881,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -10892,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -10903,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -10925,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -10936,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -10947,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -10958,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -10969,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -10980,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -10991,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -11002,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -11013,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -11024,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -11035,7 +11042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -11046,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -11057,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -11068,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -11079,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -11090,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -11101,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -11112,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -11123,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -11134,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -11145,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -11156,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -11167,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -11178,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -11189,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -11200,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -11211,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -11222,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -11233,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -11244,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -11255,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -11266,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -11277,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -11288,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -11299,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -11310,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -11321,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -11343,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -11354,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -11365,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -11376,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -11387,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -11398,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -11409,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -11420,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -11431,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -11442,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -11453,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -11464,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -11475,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -11486,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -11497,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -11508,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -11519,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -11530,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -11541,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -11552,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -11563,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -11574,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -11585,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -11596,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -11607,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -11618,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -11629,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -11640,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -11651,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -11662,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -11673,7 +11680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -11695,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -11706,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -11717,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -11728,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -11739,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -11750,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -11761,7 +11768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -11772,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -11783,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -11794,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -11805,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -11816,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -11827,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -11838,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -11849,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -11860,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -11871,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -11882,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -11893,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -11915,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -11926,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -11948,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -11959,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -11970,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -11981,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -11992,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -12003,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -12014,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -12025,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -12036,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -12047,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -12058,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -12069,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -12080,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -12091,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -12102,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -12113,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -12124,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -12135,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -12146,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -12157,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -12168,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -12179,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -12190,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -12201,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -12212,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -12223,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -12234,7 +12241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -12245,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -12256,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -12267,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -12278,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -12289,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -12300,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -12311,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -12322,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -12333,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -12344,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -12355,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -12366,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -12377,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -12388,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -12399,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -12410,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -12421,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -12432,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -12443,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -12454,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -12465,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -12476,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -12487,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -12498,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -12509,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -12520,7 +12527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -12531,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -12542,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -12553,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -12564,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -12575,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -12586,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -12597,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -12608,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -12619,7 +12626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -12630,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -12641,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -12652,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -12663,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -12674,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -12685,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -12696,7 +12703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -12707,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -12718,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -12729,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -12740,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -12751,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -12762,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -12773,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -12784,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -12795,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -12806,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -12817,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -12828,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -12839,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -12850,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -12861,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -12872,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -12883,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -12894,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -12905,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -12916,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -12927,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -12938,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -12949,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -12960,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -12971,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -12982,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -12993,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -13004,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -13015,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -13026,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -13037,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -13048,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -13059,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -13070,7 +13077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -13081,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -13092,7 +13099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -13103,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -13114,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -13125,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -13136,7 +13143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -13147,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -13158,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -13169,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -13180,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -13191,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -13202,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -13213,7 +13220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -13224,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -13235,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -13246,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -13257,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -13268,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -13279,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -13290,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -13301,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -13312,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -13323,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -13345,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -13356,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -13367,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -13378,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -13389,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -13400,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -13411,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -13422,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -13433,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -13444,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -13455,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -13466,7 +13473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -13477,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -13488,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -13499,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -13510,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -13521,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -13532,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -13543,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -13554,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -13565,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -13576,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -13587,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -13598,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -13609,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -13620,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -13631,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -13642,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -13653,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -13664,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -13675,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -13697,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -13708,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>885</v>
       </c>
@@ -13719,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>886</v>
       </c>
@@ -13730,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>887</v>
       </c>
@@ -13741,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>888</v>
       </c>
@@ -13752,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -13763,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>890</v>
       </c>
@@ -13774,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>891</v>
       </c>
@@ -13785,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>892</v>
       </c>
@@ -13796,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>893</v>
       </c>
@@ -13807,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>894</v>
       </c>
@@ -13818,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>895</v>
       </c>
@@ -13829,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>896</v>
       </c>
@@ -13840,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>897</v>
       </c>
@@ -13851,7 +13858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>898</v>
       </c>
@@ -13862,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>899</v>
       </c>
@@ -13873,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>900</v>
       </c>
@@ -13884,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>901</v>
       </c>
@@ -13895,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>902</v>
       </c>
@@ -13906,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>903</v>
       </c>
@@ -13917,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>904</v>
       </c>
@@ -13928,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>905</v>
       </c>
@@ -13939,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>906</v>
       </c>
@@ -13950,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>907</v>
       </c>
@@ -13961,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>908</v>
       </c>
@@ -13972,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>909</v>
       </c>
@@ -13983,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>910</v>
       </c>
@@ -13994,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>911</v>
       </c>
@@ -14005,7 +14012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>912</v>
       </c>
@@ -14016,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>913</v>
       </c>
@@ -14027,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>914</v>
       </c>
@@ -14038,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>915</v>
       </c>
@@ -14049,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>916</v>
       </c>
@@ -14060,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>917</v>
       </c>
@@ -14071,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>918</v>
       </c>
@@ -14082,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>919</v>
       </c>
@@ -14093,7 +14100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>920</v>
       </c>
@@ -14104,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>921</v>
       </c>
@@ -14115,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>922</v>
       </c>
@@ -14126,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>923</v>
       </c>
@@ -14137,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>924</v>
       </c>
@@ -14148,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>925</v>
       </c>
@@ -14159,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>926</v>
       </c>
@@ -14170,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>927</v>
       </c>
@@ -14181,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>928</v>
       </c>
@@ -14192,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>929</v>
       </c>
@@ -14203,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>930</v>
       </c>
@@ -14214,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>931</v>
       </c>
@@ -14225,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>932</v>
       </c>
@@ -14236,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>933</v>
       </c>
@@ -14247,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>934</v>
       </c>
@@ -14258,7 +14265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>935</v>
       </c>
@@ -14269,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>936</v>
       </c>
@@ -14280,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>937</v>
       </c>
@@ -14291,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>938</v>
       </c>
@@ -14302,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>939</v>
       </c>
@@ -14313,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>940</v>
       </c>
@@ -14324,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>941</v>
       </c>
@@ -14335,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>942</v>
       </c>
@@ -14346,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>943</v>
       </c>
@@ -14357,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>944</v>
       </c>
@@ -14368,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>945</v>
       </c>
@@ -14379,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>946</v>
       </c>
@@ -14390,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>947</v>
       </c>
@@ -14401,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>948</v>
       </c>
@@ -14412,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>949</v>
       </c>
@@ -14423,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>950</v>
       </c>
@@ -14434,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>951</v>
       </c>
@@ -14445,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>952</v>
       </c>
@@ -14456,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>953</v>
       </c>
@@ -14467,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>954</v>
       </c>
@@ -14478,7 +14485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>955</v>
       </c>
@@ -14489,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>956</v>
       </c>
@@ -14500,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>957</v>
       </c>
@@ -14511,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>958</v>
       </c>
@@ -14522,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>959</v>
       </c>
@@ -14533,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>960</v>
       </c>
@@ -14544,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>961</v>
       </c>
@@ -14555,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>962</v>
       </c>
@@ -14566,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>963</v>
       </c>
@@ -14577,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>964</v>
       </c>
@@ -14588,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>965</v>
       </c>
@@ -14599,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>966</v>
       </c>
@@ -14610,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>967</v>
       </c>
@@ -14621,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>968</v>
       </c>
@@ -14632,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>969</v>
       </c>
@@ -14643,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>970</v>
       </c>
@@ -14654,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>971</v>
       </c>
@@ -14665,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>972</v>
       </c>
@@ -14676,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>973</v>
       </c>
@@ -14687,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>974</v>
       </c>
@@ -14698,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>975</v>
       </c>
@@ -14709,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>976</v>
       </c>
@@ -14720,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>977</v>
       </c>
@@ -14731,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>978</v>
       </c>
@@ -14742,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>979</v>
       </c>
@@ -14753,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>980</v>
       </c>
@@ -14764,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>981</v>
       </c>
@@ -14775,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>982</v>
       </c>
@@ -14786,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>983</v>
       </c>
@@ -14797,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>984</v>
       </c>
@@ -14808,7 +14815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>985</v>
       </c>
@@ -14819,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>986</v>
       </c>
@@ -14830,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>987</v>
       </c>
@@ -14841,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>988</v>
       </c>
@@ -14852,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>989</v>
       </c>
@@ -14863,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>990</v>
       </c>
@@ -14874,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>991</v>
       </c>
@@ -14885,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>992</v>
       </c>
@@ -14896,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>993</v>
       </c>
@@ -14907,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>994</v>
       </c>
@@ -14918,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>995</v>
       </c>
@@ -14929,7 +14936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>996</v>
       </c>
@@ -14940,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>997</v>
       </c>
@@ -14951,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>998</v>
       </c>
@@ -14962,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>999</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>1000</v>
       </c>
@@ -14984,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>1001</v>
       </c>
@@ -14995,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>1002</v>
       </c>
@@ -15006,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>1003</v>
       </c>
@@ -15017,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>1004</v>
       </c>
@@ -15028,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>1005</v>
       </c>
@@ -15039,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>1006</v>
       </c>
@@ -15050,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>1007</v>
       </c>
@@ -15061,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>1008</v>
       </c>
@@ -15072,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>1009</v>
       </c>
@@ -15083,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
         <v>1010</v>
       </c>
@@ -15094,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
         <v>1011</v>
       </c>
@@ -15105,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
         <v>1012</v>
       </c>
@@ -15116,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
         <v>1013</v>
       </c>
@@ -15127,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" s="1">
         <v>1014</v>
       </c>
@@ -15138,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
         <v>1015</v>
       </c>
@@ -15149,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
         <v>1016</v>
       </c>
@@ -15160,7 +15167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
         <v>1017</v>
       </c>
@@ -15171,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
         <v>1018</v>
       </c>
@@ -15182,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
         <v>1019</v>
       </c>
@@ -15193,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
         <v>1020</v>
       </c>
@@ -15204,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
         <v>1021</v>
       </c>
@@ -15215,7 +15222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
         <v>1022</v>
       </c>
@@ -15226,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
         <v>1023</v>
       </c>
@@ -15237,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
         <v>1024</v>
       </c>
@@ -15248,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
         <v>1025</v>
       </c>
@@ -15259,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
         <v>1026</v>
       </c>
@@ -15270,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
         <v>1027</v>
       </c>
@@ -15281,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
         <v>1028</v>
       </c>
@@ -15292,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
         <v>1029</v>
       </c>
@@ -15303,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
         <v>1030</v>
       </c>
@@ -15314,7 +15321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" s="1">
         <v>1031</v>
       </c>
@@ -15325,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
         <v>1032</v>
       </c>
@@ -15336,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" s="1">
         <v>1033</v>
       </c>
@@ -15347,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" s="1">
         <v>1034</v>
       </c>
@@ -15358,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" s="1">
         <v>1035</v>
       </c>
@@ -15369,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" s="1">
         <v>1036</v>
       </c>
@@ -15380,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" s="1">
         <v>1037</v>
       </c>
@@ -15391,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" s="1">
         <v>1038</v>
       </c>
@@ -15402,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" s="1">
         <v>1039</v>
       </c>
@@ -15413,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" s="1">
         <v>1040</v>
       </c>
@@ -15424,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" s="1">
         <v>1041</v>
       </c>
@@ -15435,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" s="1">
         <v>1042</v>
       </c>
@@ -15446,7 +15453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" s="1">
         <v>1043</v>
       </c>
@@ -15457,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" s="1">
         <v>1044</v>
       </c>
@@ -15468,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" s="1">
         <v>1045</v>
       </c>
@@ -15479,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" s="1">
         <v>1046</v>
       </c>
@@ -15490,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" s="1">
         <v>1047</v>
       </c>
@@ -15501,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" s="1">
         <v>1048</v>
       </c>
@@ -15512,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" s="1">
         <v>1049</v>
       </c>
@@ -15523,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" s="1">
         <v>1050</v>
       </c>
@@ -15534,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" s="1">
         <v>1051</v>
       </c>
@@ -15545,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" s="1">
         <v>1052</v>
       </c>
@@ -15556,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" s="1">
         <v>1053</v>
       </c>
@@ -15567,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" s="1">
         <v>1054</v>
       </c>
@@ -15578,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" s="1">
         <v>1055</v>
       </c>
@@ -15589,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" s="1">
         <v>1056</v>
       </c>
